--- a/资料/第一周加分表/06全栈-react-1902C班-杨岭.xlsx
+++ b/资料/第一周加分表/06全栈-react-1902C班-杨岭.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection workbookPassword="CEE5" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="19280" windowHeight="11420"/>
   </bookViews>
   <sheets>
     <sheet name="成绩单" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>全栈 H1902C班  7月度成绩表 讲师：杨岭 班主任：姜涛</t>
   </si>
@@ -351,76 +351,76 @@
     <t>何宇飞</t>
   </si>
   <si>
+    <t>阿鲁斯</t>
+  </si>
+  <si>
+    <t>邵静怡</t>
+  </si>
+  <si>
+    <t>第4组</t>
+  </si>
+  <si>
+    <t>王建</t>
+  </si>
+  <si>
+    <t>梁宣</t>
+  </si>
+  <si>
+    <t>田长寿</t>
+  </si>
+  <si>
+    <t>赵阳</t>
+  </si>
+  <si>
+    <t>李凡</t>
+  </si>
+  <si>
+    <t>吴涵月</t>
+  </si>
+  <si>
+    <t>曹一凡</t>
+  </si>
+  <si>
+    <t>刘超奇</t>
+  </si>
+  <si>
+    <t>第5组</t>
+  </si>
+  <si>
+    <t>苏日娜</t>
+  </si>
+  <si>
+    <t>薛晓燕</t>
+  </si>
+  <si>
+    <t>袁文强</t>
+  </si>
+  <si>
+    <t>楚浩</t>
+  </si>
+  <si>
+    <t>那任满达</t>
+  </si>
+  <si>
+    <t>李永辉</t>
+  </si>
+  <si>
+    <t>郝超鹏</t>
+  </si>
+  <si>
+    <t>李浩</t>
+  </si>
+  <si>
+    <t>第6组</t>
+  </si>
+  <si>
+    <t>祝红旭</t>
+  </si>
+  <si>
+    <t>腊小龙</t>
+  </si>
+  <si>
     <t>李吕梁</t>
-  </si>
-  <si>
-    <t>阿鲁斯</t>
-  </si>
-  <si>
-    <t>邵静怡</t>
-  </si>
-  <si>
-    <t>第4组</t>
-  </si>
-  <si>
-    <t>王建</t>
-  </si>
-  <si>
-    <t>梁宣</t>
-  </si>
-  <si>
-    <t>田长寿</t>
-  </si>
-  <si>
-    <t>赵阳</t>
-  </si>
-  <si>
-    <t>李凡</t>
-  </si>
-  <si>
-    <t>吴涵月</t>
-  </si>
-  <si>
-    <t>曹一凡</t>
-  </si>
-  <si>
-    <t>刘超奇</t>
-  </si>
-  <si>
-    <t>第5组</t>
-  </si>
-  <si>
-    <t>苏日娜</t>
-  </si>
-  <si>
-    <t>薛晓燕</t>
-  </si>
-  <si>
-    <t>袁文强</t>
-  </si>
-  <si>
-    <t>楚浩</t>
-  </si>
-  <si>
-    <t>那任满达</t>
-  </si>
-  <si>
-    <t>李永辉</t>
-  </si>
-  <si>
-    <t>郝超鹏</t>
-  </si>
-  <si>
-    <t>李浩</t>
-  </si>
-  <si>
-    <t>第6组</t>
-  </si>
-  <si>
-    <t>祝红旭</t>
-  </si>
-  <si>
-    <t>腊小龙</t>
   </si>
   <si>
     <t>第7组</t>
@@ -503,17 +503,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="m\.d\([$]aaaa\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="m\.d\([$]aaaa\)"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +567,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -580,15 +587,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +621,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,10 +636,54 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,67 +702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -702,40 +710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -803,7 +779,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,25 +899,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,91 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,49 +959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1034,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1082,31 +1082,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1126,41 +1102,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,6 +1141,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1205,162 +1190,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,7 +1390,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1423,67 +1399,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1501,62 +1438,101 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1574,54 +1550,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1942,28 +1918,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A42" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C57" sqref="C15:C57"/>
+      <selection pane="topRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.37962962962963" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.87962962962963" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.3796296296296" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="9" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.5" style="10" customWidth="1"/>
     <col min="10" max="12" width="16.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="24.3796296296296" style="10" customWidth="1"/>
+    <col min="13" max="13" width="24.375" style="10" customWidth="1"/>
     <col min="14" max="33" width="9" style="11"/>
     <col min="34" max="16384" width="9" style="8"/>
   </cols>
@@ -2010,40 +1986,40 @@
       </c>
       <c r="D3" s="18">
         <f>D5-D4-D6-D7-D8</f>
-        <v>42</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
-      <c r="M3" s="54">
+      <c r="M3" s="55">
         <f>M5-M4-M6-M7-M8</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="13"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="20">
         <f>COUNTIF(F$15:F$110,"&gt;=79.5")</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="55">
+        <v>6</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="56">
         <f>COUNTIF(M$15:M$110,"&gt;=79.5")</f>
         <v>0</v>
       </c>
@@ -2051,45 +2027,45 @@
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="13"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="21">
         <f>COUNTA($C$15:$C$110)</f>
-        <v>42</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="55">
+        <v>41</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="56">
         <f>COUNTA($C$15:$C$110)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="13"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="18">
         <f>COUNTIF(D15:E110,"请假")-COUNTIFS(D15:D110,"请假",E15:E110,"请假")+COUNTIF(D15:E110,"旷考")-COUNTIFS(D15:D110,"旷考",E15:E110,"旷考")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
-      <c r="M6" s="54">
+      <c r="M6" s="55">
         <f>COUNTIF(G15:G110,"请假")+COUNTIF(G15:G110,"旷考")</f>
         <v>0</v>
       </c>
@@ -2097,22 +2073,22 @@
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="13"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="18">
         <f>COUNTIF(D15:E110,"休学")-COUNTIFS(D15:D110,"休学",E15:E110,"休学")</f>
         <v>0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="54">
+      <c r="M7" s="55">
         <f>COUNTIF(G15:G110,"休学")</f>
         <v>0</v>
       </c>
@@ -2120,22 +2096,22 @@
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="13"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="18">
         <f>COUNTIF(D15:E110,"作弊")-COUNTIFS(D15:D110,"作弊",E15:E110,"作弊")</f>
         <v>0</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="54">
+      <c r="M8" s="55">
         <f>COUNTIF(G15:G110,"作弊")</f>
         <v>0</v>
       </c>
@@ -2143,45 +2119,45 @@
     <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="13"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="18">
         <f>COUNT($B$15:$B$110)</f>
-        <v>22</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="54">
+      <c r="M9" s="55">
         <f>COUNT($B$15:$B$110)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="13"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="18">
         <f>COUNTIFS(B:B,"&gt;0",F:F,"&gt;=80")</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="54">
+      <c r="M10" s="55">
         <f>COUNTIFS(B:B,"&gt;0",M:M,"&gt;=80")</f>
         <v>0</v>
       </c>
@@ -2189,22 +2165,22 @@
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="13"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="22">
         <f>D10/D9</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="56">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="57">
         <f>M10/M9</f>
         <v>0</v>
       </c>
@@ -2212,22 +2188,22 @@
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="13"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="23">
         <f>D4/D5</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="56">
+        <v>0.146341463414634</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="57">
         <f>M4/M5</f>
         <v>0</v>
       </c>
@@ -2235,2131 +2211,2253 @@
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="24">
         <f>(D5-D6)/D5</f>
         <v>1</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="56">
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="57">
         <f>(M5-M6)/M5</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="13"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43" t="e">
+      <c r="D15" s="29">
+        <v>100</v>
+      </c>
+      <c r="E15" s="29">
+        <v>30</v>
+      </c>
+      <c r="F15" s="53">
         <f t="shared" ref="F15:F53" si="0">AVERAGEA(D15:E15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="57">
+        <v>65</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="54">
         <f t="shared" ref="I15:I55" si="1">G15*0.2+H15*0.8</f>
         <v>0</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44">
+      <c r="J15" s="39">
+        <v>8</v>
+      </c>
+      <c r="K15" s="39">
         <f>IF(B15*5&gt;=15,15,B15*5)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="39">
         <f t="shared" ref="L15:L17" si="2">80-J15-K15</f>
-        <v>80</v>
-      </c>
-      <c r="M15" s="58" t="e">
+        <v>72</v>
+      </c>
+      <c r="M15" s="58">
         <f>IF(F15*0.15+I15*0.85&gt;=L15,100,F15*0.15+I15*0.85)</f>
-        <v>#DIV/0!</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43" t="e">
+      <c r="D16" s="29">
+        <v>75</v>
+      </c>
+      <c r="E16" s="29">
+        <v>50</v>
+      </c>
+      <c r="F16" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="57">
+        <v>62.5</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44">
+      <c r="J16" s="39">
+        <v>8</v>
+      </c>
+      <c r="K16" s="39">
         <f t="shared" ref="K16:K79" si="3">IF(B16*5&gt;=15,15,B16*5)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="39">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="M16" s="58" t="e">
+        <v>72</v>
+      </c>
+      <c r="M16" s="58">
         <f>IF(F16*0.15+I16*0.85&gt;=L16,100,F16*0.15+I16*0.85)</f>
-        <v>#DIV/0!</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43" t="e">
+      <c r="D17" s="29">
+        <v>80</v>
+      </c>
+      <c r="E17" s="29">
+        <v>30</v>
+      </c>
+      <c r="F17" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="57">
+        <v>55</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44">
+      <c r="J17" s="39">
+        <v>8</v>
+      </c>
+      <c r="K17" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="39">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="M17" s="58" t="e">
+        <v>72</v>
+      </c>
+      <c r="M17" s="58">
         <f t="shared" ref="M17:M78" si="4">IF(F17*0.15+I17*0.85&gt;=L17,100,F17*0.15+I17*0.85)</f>
-        <v>#DIV/0!</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43" t="e">
+      <c r="D18" s="29">
+        <v>90</v>
+      </c>
+      <c r="E18" s="29">
+        <v>30</v>
+      </c>
+      <c r="F18" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="57">
+        <v>60</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44">
+      <c r="J18" s="39"/>
+      <c r="K18" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="39">
         <f t="shared" ref="L18:L79" si="5">80-J18-K18</f>
         <v>80</v>
       </c>
-      <c r="M18" s="58" t="e">
+      <c r="M18" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="e">
+      <c r="D19" s="29">
+        <v>80</v>
+      </c>
+      <c r="E19" s="29">
+        <v>30</v>
+      </c>
+      <c r="F19" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="57">
+        <v>55</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44">
+      <c r="J19" s="39"/>
+      <c r="K19" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M19" s="58" t="e">
+      <c r="M19" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43" t="e">
+      <c r="D20" s="29">
+        <v>55</v>
+      </c>
+      <c r="E20" s="29">
+        <v>30</v>
+      </c>
+      <c r="F20" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="57">
+        <v>42.5</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44">
+      <c r="J20" s="39"/>
+      <c r="K20" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M20" s="58" t="e">
+      <c r="M20" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43" t="e">
+      <c r="D21" s="29">
+        <v>90</v>
+      </c>
+      <c r="E21" s="29">
+        <v>40</v>
+      </c>
+      <c r="F21" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="57">
+        <v>65</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M21" s="58" t="e">
+      <c r="M21" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43" t="e">
+      <c r="D22" s="29">
+        <v>60</v>
+      </c>
+      <c r="E22" s="29">
+        <v>30</v>
+      </c>
+      <c r="F22" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="57">
+        <v>45</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44">
+      <c r="J22" s="39"/>
+      <c r="K22" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M22" s="58" t="e">
+      <c r="M22" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:13">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43" t="e">
+      <c r="D23" s="29">
+        <v>50</v>
+      </c>
+      <c r="E23" s="29">
+        <v>45</v>
+      </c>
+      <c r="F23" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="57">
+        <v>47.5</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44">
+      <c r="J23" s="39"/>
+      <c r="K23" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M23" s="58" t="e">
+      <c r="M23" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.125</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:13">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43" t="e">
+      <c r="D24" s="29">
+        <v>88</v>
+      </c>
+      <c r="E24" s="29">
+        <v>40</v>
+      </c>
+      <c r="F24" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="57">
+        <v>64</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44">
+      <c r="J24" s="39"/>
+      <c r="K24" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L24" s="44">
+      <c r="L24" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M24" s="58" t="e">
+      <c r="M24" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:13">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43" t="e">
+      <c r="D25" s="29">
+        <v>68</v>
+      </c>
+      <c r="E25" s="29">
+        <v>35</v>
+      </c>
+      <c r="F25" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="57">
+        <v>51.5</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M25" s="58" t="e">
+      <c r="M25" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.725</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:13">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43" t="e">
+      <c r="D26" s="29">
+        <v>95</v>
+      </c>
+      <c r="E26" s="29">
+        <v>30</v>
+      </c>
+      <c r="F26" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="57">
+        <v>62.5</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44">
+      <c r="J26" s="39"/>
+      <c r="K26" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M26" s="58" t="e">
+      <c r="M26" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:13">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43" t="e">
+      <c r="D27" s="29">
+        <v>30</v>
+      </c>
+      <c r="E27" s="29">
+        <v>30</v>
+      </c>
+      <c r="F27" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="57">
+        <v>30</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44">
+      <c r="J27" s="39"/>
+      <c r="K27" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M27" s="58" t="e">
+      <c r="M27" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:13">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43" t="e">
+      <c r="D28" s="29">
+        <v>77</v>
+      </c>
+      <c r="E28" s="29">
+        <v>70</v>
+      </c>
+      <c r="F28" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="57">
+        <v>73.5</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44">
+      <c r="J28" s="39"/>
+      <c r="K28" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M28" s="58" t="e">
+      <c r="M28" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>11.025</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:13">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43" t="e">
+      <c r="D29" s="29">
+        <v>62</v>
+      </c>
+      <c r="E29" s="29">
+        <v>45</v>
+      </c>
+      <c r="F29" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="57">
+        <v>53.5</v>
+      </c>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44">
+      <c r="J29" s="39"/>
+      <c r="K29" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M29" s="58" t="e">
+      <c r="M29" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.025</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:13">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43" t="e">
+      <c r="D30" s="29">
+        <v>87</v>
+      </c>
+      <c r="E30" s="29">
+        <v>35</v>
+      </c>
+      <c r="F30" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="57">
+        <v>61</v>
+      </c>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44">
+      <c r="J30" s="39"/>
+      <c r="K30" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="44">
+      <c r="L30" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M30" s="58" t="e">
+      <c r="M30" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:13">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43" t="e">
+      <c r="D31" s="29">
+        <v>52</v>
+      </c>
+      <c r="E31" s="29">
+        <v>35</v>
+      </c>
+      <c r="F31" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="57">
+        <v>43.5</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44">
+      <c r="J31" s="39"/>
+      <c r="K31" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L31" s="44">
+      <c r="L31" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M31" s="58" t="e">
+      <c r="M31" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.525</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:13">
-      <c r="A32" s="45"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43" t="e">
+      <c r="D32" s="29">
+        <v>55</v>
+      </c>
+      <c r="E32" s="29">
+        <v>30</v>
+      </c>
+      <c r="F32" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="57">
+        <v>42.5</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44">
+      <c r="J32" s="39"/>
+      <c r="K32" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M32" s="58" t="e">
+      <c r="M32" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:13">
-      <c r="A33" s="45"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43" t="e">
+      <c r="D33" s="29">
+        <v>75</v>
+      </c>
+      <c r="E33" s="29">
+        <v>40</v>
+      </c>
+      <c r="F33" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="57">
+        <v>57.5</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44">
+      <c r="J33" s="39"/>
+      <c r="K33" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M33" s="58" t="e">
+      <c r="M33" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.625</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:13">
-      <c r="A34" s="45"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43" t="e">
+      <c r="D34" s="29">
+        <v>35</v>
+      </c>
+      <c r="E34" s="29">
+        <v>35</v>
+      </c>
+      <c r="F34" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="57">
+        <v>35</v>
+      </c>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44">
+      <c r="J34" s="39"/>
+      <c r="K34" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M34" s="58" t="e">
+      <c r="M34" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:13">
-      <c r="A35" s="45"/>
-      <c r="B35" s="41">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="39">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="M35" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:13">
+      <c r="A36" s="30"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="39">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="M36" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:13">
+      <c r="A37" s="30"/>
+      <c r="B37" s="28">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43" t="e">
+      <c r="D37" s="29">
+        <v>75</v>
+      </c>
+      <c r="E37" s="29">
+        <v>80</v>
+      </c>
+      <c r="F37" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="57">
+        <v>77.5</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44">
+      <c r="J37" s="39"/>
+      <c r="K37" s="39">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L37" s="39">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="M37" s="58">
+        <f t="shared" si="4"/>
+        <v>11.625</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:13">
+      <c r="A38" s="30"/>
+      <c r="B38" s="28">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="29">
+        <v>40</v>
+      </c>
+      <c r="E38" s="29">
+        <v>65</v>
+      </c>
+      <c r="F38" s="53">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L38" s="39">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="M38" s="58">
+        <f t="shared" si="4"/>
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:13">
+      <c r="A39" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="28">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="29">
+        <v>85</v>
+      </c>
+      <c r="E39" s="29">
+        <v>85</v>
+      </c>
+      <c r="F39" s="53">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L39" s="39">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="M39" s="58">
+        <f t="shared" si="4"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:13">
+      <c r="A40" s="30"/>
+      <c r="B40" s="28">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="29">
+        <v>65</v>
+      </c>
+      <c r="E40" s="29">
+        <v>30</v>
+      </c>
+      <c r="F40" s="53">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L40" s="39">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="M40" s="58">
+        <f t="shared" si="4"/>
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:13">
+      <c r="A41" s="30"/>
+      <c r="B41" s="28">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="29">
+        <v>85</v>
+      </c>
+      <c r="E41" s="29">
+        <v>80</v>
+      </c>
+      <c r="F41" s="53">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L35" s="44">
+      <c r="L41" s="39">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="M35" s="58" t="e">
+      <c r="M41" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:13">
-      <c r="A36" s="45"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43" t="e">
+        <v>12.375</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:13">
+      <c r="A42" s="30"/>
+      <c r="B42" s="28">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="29">
+        <v>85</v>
+      </c>
+      <c r="E42" s="29">
+        <v>85</v>
+      </c>
+      <c r="F42" s="53">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="57">
+        <v>85</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44">
+      <c r="J42" s="39"/>
+      <c r="K42" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="44">
+        <v>5</v>
+      </c>
+      <c r="L42" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M42" s="58">
+        <f t="shared" si="4"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:13">
+      <c r="A43" s="30"/>
+      <c r="B43" s="28">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L43" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M43" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:13">
+      <c r="A44" s="30"/>
+      <c r="B44" s="28">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L44" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M44" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:13">
+      <c r="A45" s="30"/>
+      <c r="B45" s="28">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L45" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M45" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:13">
+      <c r="A46" s="30"/>
+      <c r="B46" s="28">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L46" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M46" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:13">
+      <c r="A47" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="28">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L47" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M47" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:13">
+      <c r="A48" s="33"/>
+      <c r="B48" s="28">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L48" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M48" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:13">
+      <c r="A49" s="33"/>
+      <c r="B49" s="28">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L49" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M49" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:13">
+      <c r="A50" s="33"/>
+      <c r="B50" s="28">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L50" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M50" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:13">
+      <c r="A51" s="33"/>
+      <c r="B51" s="28">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L51" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M51" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:13">
+      <c r="A52" s="33"/>
+      <c r="B52" s="28">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L52" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M52" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:13">
+      <c r="A53" s="33"/>
+      <c r="B53" s="28">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L53" s="39">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="M53" s="58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:13">
+      <c r="A54" s="34"/>
+      <c r="B54" s="28">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="29">
+        <v>95</v>
+      </c>
+      <c r="E54" s="29">
+        <v>65</v>
+      </c>
+      <c r="F54" s="53">
+        <f t="shared" ref="F54:F79" si="6">AVERAGEA(D54:E54)</f>
+        <v>80</v>
+      </c>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39">
+        <f>IF(B111*5&gt;=15,15,B111*5)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M36" s="58" t="e">
+      <c r="M54" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:13">
-      <c r="A37" s="45"/>
-      <c r="B37" s="41">
-        <v>2</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:13">
+      <c r="A55" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="28">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="29">
+        <v>85</v>
+      </c>
+      <c r="E55" s="29">
+        <v>80</v>
+      </c>
+      <c r="F55" s="53">
+        <f t="shared" si="6"/>
+        <v>82.5</v>
+      </c>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L37" s="44">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="M37" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:13">
-      <c r="A38" s="45"/>
-      <c r="B38" s="41">
-        <v>2</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L38" s="44">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="M38" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:13">
-      <c r="A39" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="41">
-        <v>2</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L39" s="44">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="M39" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:13">
-      <c r="A40" s="45"/>
-      <c r="B40" s="41">
-        <v>2</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L40" s="44">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="M40" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:13">
-      <c r="A41" s="45"/>
-      <c r="B41" s="41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44">
+      <c r="J55" s="39"/>
+      <c r="K55" s="39">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L41" s="44">
+      <c r="L55" s="39">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="M41" s="58" t="e">
+      <c r="M55" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:13">
-      <c r="A42" s="45"/>
-      <c r="B42" s="41">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44">
+        <v>12.375</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:13">
+      <c r="A56" s="35"/>
+      <c r="B56" s="28">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="29">
+        <v>95</v>
+      </c>
+      <c r="E56" s="29">
+        <v>85</v>
+      </c>
+      <c r="F56" s="53">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="54">
+        <f t="shared" ref="I56:I79" si="7">G56*0.2+H56*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L42" s="44">
+      <c r="L56" s="39">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="M42" s="58" t="e">
+      <c r="M56" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:13">
-      <c r="A43" s="45"/>
-      <c r="B43" s="41">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:13">
+      <c r="A57" s="35"/>
+      <c r="B57" s="28">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="29">
+        <v>25</v>
+      </c>
+      <c r="E57" s="29">
+        <v>30</v>
+      </c>
+      <c r="F57" s="53">
+        <f t="shared" si="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L43" s="44">
+      <c r="L57" s="39">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="M43" s="58" t="e">
+      <c r="M57" s="58">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:13">
-      <c r="A44" s="45"/>
-      <c r="B44" s="41">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44">
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:13">
+      <c r="A58" s="35"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="53" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L44" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M44" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:13">
-      <c r="A45" s="45"/>
-      <c r="B45" s="41">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L45" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M45" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:13">
-      <c r="A46" s="45"/>
-      <c r="B46" s="41">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L46" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M46" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:13">
-      <c r="A47" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="41">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L47" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M47" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:13">
-      <c r="A48" s="48"/>
-      <c r="B48" s="41">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L48" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M48" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:13">
-      <c r="A49" s="48"/>
-      <c r="B49" s="41">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L49" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M49" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:13">
-      <c r="A50" s="48"/>
-      <c r="B50" s="41">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L50" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M50" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:13">
-      <c r="A51" s="48"/>
-      <c r="B51" s="41">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L51" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M51" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:13">
-      <c r="A52" s="48"/>
-      <c r="B52" s="41">
-        <v>1</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L52" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M52" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:13">
-      <c r="A53" s="48"/>
-      <c r="B53" s="41">
-        <v>1</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L53" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M53" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:13">
-      <c r="A54" s="49"/>
-      <c r="B54" s="41">
-        <v>1</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43" t="e">
-        <f t="shared" ref="F54:F79" si="6">AVERAGEA(D54:E54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44">
-        <f>IF(B111*5&gt;=15,15,B111*5)</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="44">
+        <v>0</v>
+      </c>
+      <c r="L58" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M54" s="58" t="e">
+      <c r="M58" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:13">
-      <c r="A55" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="41">
-        <v>1</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43" t="e">
+    <row r="59" customHeight="1" spans="1:13">
+      <c r="A59" s="35"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44">
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L55" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M55" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:13">
-      <c r="A56" s="50"/>
-      <c r="B56" s="41">
-        <v>1</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="57">
-        <f t="shared" ref="I56:I79" si="7">G56*0.2+H56*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L56" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M56" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:13">
-      <c r="A57" s="50"/>
-      <c r="B57" s="41">
-        <v>1</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="57">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L57" s="44">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="M57" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:13">
-      <c r="A58" s="50"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="57">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="44">
+        <v>0</v>
+      </c>
+      <c r="L59" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M58" s="58" t="e">
+      <c r="M59" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:13">
-      <c r="A59" s="50"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43" t="e">
+    <row r="60" customHeight="1" spans="1:13">
+      <c r="A60" s="35"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="57">
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44">
+      <c r="J60" s="39"/>
+      <c r="K60" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L59" s="44">
+      <c r="L60" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M59" s="58" t="e">
+      <c r="M60" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:13">
-      <c r="A60" s="50"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43" t="e">
+    <row r="61" customHeight="1" spans="1:13">
+      <c r="A61" s="35"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="57">
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44">
+      <c r="J61" s="39"/>
+      <c r="K61" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L60" s="44">
+      <c r="L61" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M60" s="58" t="e">
+      <c r="M61" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:13">
-      <c r="A61" s="50"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43" t="e">
+    <row r="62" customHeight="1" spans="1:13">
+      <c r="A62" s="35"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="57">
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44">
+      <c r="J62" s="39"/>
+      <c r="K62" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L61" s="44">
+      <c r="L62" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M61" s="58" t="e">
+      <c r="M62" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:13">
-      <c r="A62" s="50"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43" t="e">
+    <row r="63" customHeight="1" spans="1:13">
+      <c r="A63" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="28"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="57">
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44">
+      <c r="J63" s="39"/>
+      <c r="K63" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L62" s="44">
+      <c r="L63" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M62" s="58" t="e">
+      <c r="M63" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:13">
-      <c r="A63" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43" t="e">
+    <row r="64" customHeight="1" spans="1:13">
+      <c r="A64" s="36"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="57">
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44">
+      <c r="J64" s="39"/>
+      <c r="K64" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L63" s="44">
+      <c r="L64" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M63" s="58" t="e">
+      <c r="M64" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:13">
-      <c r="A64" s="51"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="43" t="e">
+    <row r="65" customHeight="1" spans="1:13">
+      <c r="A65" s="36"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="57">
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44">
+      <c r="J65" s="39"/>
+      <c r="K65" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L64" s="44">
+      <c r="L65" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M64" s="58" t="e">
+      <c r="M65" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:13">
-      <c r="A65" s="51"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="43" t="e">
+    <row r="66" customHeight="1" spans="1:13">
+      <c r="A66" s="36"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="57">
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44">
+      <c r="J66" s="39"/>
+      <c r="K66" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L65" s="44">
+      <c r="L66" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M65" s="58" t="e">
+      <c r="M66" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:13">
-      <c r="A66" s="51"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="43" t="e">
+    <row r="67" customHeight="1" spans="1:13">
+      <c r="A67" s="36"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="57">
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44">
+      <c r="J67" s="39"/>
+      <c r="K67" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L66" s="44">
+      <c r="L67" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M66" s="58" t="e">
+      <c r="M67" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:13">
-      <c r="A67" s="51"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="43" t="e">
+    <row r="68" customHeight="1" spans="1:13">
+      <c r="A68" s="36"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="57">
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44">
+      <c r="J68" s="39"/>
+      <c r="K68" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L67" s="44">
+      <c r="L68" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M67" s="58" t="e">
+      <c r="M68" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:13">
-      <c r="A68" s="51"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="43" t="e">
+    <row r="69" customHeight="1" spans="1:13">
+      <c r="A69" s="36"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="57">
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44">
+      <c r="J69" s="39"/>
+      <c r="K69" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L68" s="44">
+      <c r="L69" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M68" s="58" t="e">
+      <c r="M69" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:13">
-      <c r="A69" s="51"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="43" t="e">
+    <row r="70" customHeight="1" spans="1:13">
+      <c r="A70" s="36"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="57">
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44">
+      <c r="J70" s="39"/>
+      <c r="K70" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L69" s="44">
+      <c r="L70" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M69" s="58" t="e">
+      <c r="M70" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:13">
-      <c r="A70" s="51"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="43" t="e">
+    <row r="71" customHeight="1" spans="1:13">
+      <c r="A71" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="57">
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44">
+      <c r="J71" s="39"/>
+      <c r="K71" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L70" s="44">
+      <c r="L71" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M70" s="58" t="e">
+      <c r="M71" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:13">
-      <c r="A71" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="43" t="e">
+    <row r="72" customHeight="1" spans="1:13">
+      <c r="A72" s="36"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="57">
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44">
+      <c r="J72" s="39"/>
+      <c r="K72" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L71" s="44">
+      <c r="L72" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M71" s="58" t="e">
+      <c r="M72" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:13">
-      <c r="A72" s="51"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="43" t="e">
+    <row r="73" customHeight="1" spans="1:13">
+      <c r="A73" s="36"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="57">
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44">
+      <c r="J73" s="39"/>
+      <c r="K73" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L72" s="44">
+      <c r="L73" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M72" s="58" t="e">
+      <c r="M73" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:13">
-      <c r="A73" s="51"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="43" t="e">
+    <row r="74" customHeight="1" spans="1:13">
+      <c r="A74" s="36"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="57">
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44">
+      <c r="J74" s="39"/>
+      <c r="K74" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L73" s="44">
+      <c r="L74" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M73" s="58" t="e">
+      <c r="M74" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:13">
-      <c r="A74" s="51"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="43" t="e">
+    <row r="75" customHeight="1" spans="1:13">
+      <c r="A75" s="36"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="57">
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44">
+      <c r="J75" s="39">
+        <f>作业加减分!S57</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L74" s="44">
+      <c r="L75" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M74" s="58" t="e">
+      <c r="M75" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:13">
-      <c r="A75" s="51"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="43" t="e">
+    <row r="76" customHeight="1" spans="1:13">
+      <c r="A76" s="36"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="57">
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J75" s="44">
-        <f>作业加减分!S57</f>
-        <v>0</v>
-      </c>
-      <c r="K75" s="44">
+      <c r="J76" s="39">
+        <f>作业加减分!S58</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L75" s="44">
+      <c r="L76" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M75" s="58" t="e">
+      <c r="M76" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:13">
-      <c r="A76" s="51"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="43" t="e">
+    <row r="77" customHeight="1" spans="1:13">
+      <c r="A77" s="36"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="57">
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J76" s="44">
-        <f>作业加减分!S58</f>
-        <v>0</v>
-      </c>
-      <c r="K76" s="44">
+      <c r="J77" s="39">
+        <f>作业加减分!S59</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L76" s="44">
+      <c r="L77" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="M76" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:13">
-      <c r="A77" s="51"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="43" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="57">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="44">
-        <f>作业加减分!S59</f>
-        <v>0</v>
-      </c>
-      <c r="K77" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="44">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
       <c r="M77" s="58" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:13">
-      <c r="A78" s="51"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="43" t="e">
+      <c r="A78" s="36"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="57">
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J78" s="44">
+      <c r="J78" s="39">
         <f>作业加减分!S60</f>
         <v>0</v>
       </c>
-      <c r="K78" s="44">
+      <c r="K78" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L78" s="44">
+      <c r="L78" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
@@ -4372,29 +4470,29 @@
       <c r="A79" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="43" t="e">
+      <c r="B79" s="38"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="57">
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J79" s="44">
+      <c r="J79" s="39">
         <f>作业加减分!S61</f>
         <v>0</v>
       </c>
-      <c r="K79" s="44">
+      <c r="K79" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L79" s="44">
+      <c r="L79" s="39">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
@@ -4405,29 +4503,29 @@
     </row>
     <row r="80" customHeight="1" spans="1:13">
       <c r="A80" s="60"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="43" t="e">
+      <c r="B80" s="38"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="53" t="e">
         <f t="shared" ref="F80:F110" si="9">AVERAGEA(D80:E80)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="57">
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="54">
         <f t="shared" ref="I80:I110" si="10">G80*0.2+H80*0.8</f>
         <v>0</v>
       </c>
-      <c r="J80" s="44">
+      <c r="J80" s="39">
         <f>作业加减分!S62</f>
         <v>0</v>
       </c>
-      <c r="K80" s="44">
+      <c r="K80" s="39">
         <f t="shared" ref="K80:K110" si="11">IF(B80*5&gt;=15,15,B80*5)</f>
         <v>0</v>
       </c>
-      <c r="L80" s="44">
+      <c r="L80" s="39">
         <f t="shared" ref="L80:L110" si="12">80-J80-K80</f>
         <v>80</v>
       </c>
@@ -4438,29 +4536,29 @@
     </row>
     <row r="81" customHeight="1" spans="1:13">
       <c r="A81" s="60"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="43" t="e">
+      <c r="B81" s="38"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="57">
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J81" s="44">
+      <c r="J81" s="39">
         <f>作业加减分!S63</f>
         <v>0</v>
       </c>
-      <c r="K81" s="44">
+      <c r="K81" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L81" s="44">
+      <c r="L81" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4471,29 +4569,29 @@
     </row>
     <row r="82" customHeight="1" spans="1:13">
       <c r="A82" s="60"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="43" t="e">
+      <c r="B82" s="38"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="57">
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J82" s="44">
+      <c r="J82" s="39">
         <f>作业加减分!S64</f>
         <v>0</v>
       </c>
-      <c r="K82" s="44">
+      <c r="K82" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L82" s="44">
+      <c r="L82" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4504,29 +4602,29 @@
     </row>
     <row r="83" customHeight="1" spans="1:13">
       <c r="A83" s="60"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="43" t="e">
+      <c r="B83" s="38"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="57">
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J83" s="44">
+      <c r="J83" s="39">
         <f>作业加减分!S65</f>
         <v>0</v>
       </c>
-      <c r="K83" s="44">
+      <c r="K83" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L83" s="44">
+      <c r="L83" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4537,29 +4635,29 @@
     </row>
     <row r="84" customHeight="1" spans="1:13">
       <c r="A84" s="60"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="43" t="e">
+      <c r="B84" s="38"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="57">
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J84" s="44">
+      <c r="J84" s="39">
         <f>作业加减分!S66</f>
         <v>0</v>
       </c>
-      <c r="K84" s="44">
+      <c r="K84" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L84" s="44">
+      <c r="L84" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4570,29 +4668,29 @@
     </row>
     <row r="85" customHeight="1" spans="1:13">
       <c r="A85" s="60"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="43" t="e">
+      <c r="B85" s="38"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="57">
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J85" s="44">
+      <c r="J85" s="39">
         <f>作业加减分!S67</f>
         <v>0</v>
       </c>
-      <c r="K85" s="44">
+      <c r="K85" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L85" s="44">
+      <c r="L85" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4603,29 +4701,29 @@
     </row>
     <row r="86" customHeight="1" spans="1:13">
       <c r="A86" s="60"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="43" t="e">
+      <c r="B86" s="38"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="57">
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J86" s="44">
+      <c r="J86" s="39">
         <f>作业加减分!S68</f>
         <v>0</v>
       </c>
-      <c r="K86" s="44">
+      <c r="K86" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L86" s="44">
+      <c r="L86" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4638,29 +4736,29 @@
       <c r="A87" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="53"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="43" t="e">
+      <c r="B87" s="38"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="57">
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J87" s="44">
+      <c r="J87" s="39">
         <f>作业加减分!S69</f>
         <v>0</v>
       </c>
-      <c r="K87" s="44">
+      <c r="K87" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L87" s="44">
+      <c r="L87" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4671,29 +4769,29 @@
     </row>
     <row r="88" customHeight="1" spans="1:13">
       <c r="A88" s="60"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="43" t="e">
+      <c r="B88" s="38"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="57">
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J88" s="44">
+      <c r="J88" s="39">
         <f>作业加减分!S70</f>
         <v>0</v>
       </c>
-      <c r="K88" s="44">
+      <c r="K88" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L88" s="44">
+      <c r="L88" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4704,29 +4802,29 @@
     </row>
     <row r="89" customHeight="1" spans="1:13">
       <c r="A89" s="60"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="43" t="e">
+      <c r="B89" s="38"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="57">
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J89" s="44">
+      <c r="J89" s="39">
         <f>作业加减分!S71</f>
         <v>0</v>
       </c>
-      <c r="K89" s="44">
+      <c r="K89" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L89" s="44">
+      <c r="L89" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4737,29 +4835,29 @@
     </row>
     <row r="90" customHeight="1" spans="1:13">
       <c r="A90" s="60"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="43" t="e">
+      <c r="B90" s="38"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="57">
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J90" s="44">
+      <c r="J90" s="39">
         <f>作业加减分!S72</f>
         <v>0</v>
       </c>
-      <c r="K90" s="44">
+      <c r="K90" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L90" s="44">
+      <c r="L90" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4770,29 +4868,29 @@
     </row>
     <row r="91" customHeight="1" spans="1:13">
       <c r="A91" s="60"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="43" t="e">
+      <c r="B91" s="38"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="57">
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J91" s="44">
+      <c r="J91" s="39">
         <f>作业加减分!S73</f>
         <v>0</v>
       </c>
-      <c r="K91" s="44">
+      <c r="K91" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L91" s="44">
+      <c r="L91" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4803,29 +4901,29 @@
     </row>
     <row r="92" customHeight="1" spans="1:13">
       <c r="A92" s="60"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="43" t="e">
+      <c r="B92" s="38"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="57">
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J92" s="44">
+      <c r="J92" s="39">
         <f>作业加减分!S74</f>
         <v>0</v>
       </c>
-      <c r="K92" s="44">
+      <c r="K92" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L92" s="44">
+      <c r="L92" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4836,29 +4934,29 @@
     </row>
     <row r="93" customHeight="1" spans="1:13">
       <c r="A93" s="60"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="43" t="e">
+      <c r="B93" s="38"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="57">
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J93" s="44">
+      <c r="J93" s="39">
         <f>作业加减分!S75</f>
         <v>0</v>
       </c>
-      <c r="K93" s="44">
+      <c r="K93" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L93" s="44">
+      <c r="L93" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4869,29 +4967,29 @@
     </row>
     <row r="94" customHeight="1" spans="1:13">
       <c r="A94" s="60"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="43" t="e">
+      <c r="B94" s="38"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="57">
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J94" s="44">
+      <c r="J94" s="39">
         <f>作业加减分!S76</f>
         <v>0</v>
       </c>
-      <c r="K94" s="44">
+      <c r="K94" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L94" s="44">
+      <c r="L94" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4904,29 +5002,29 @@
       <c r="A95" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="53"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="43" t="e">
+      <c r="B95" s="38"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="57">
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J95" s="44">
+      <c r="J95" s="39">
         <f>作业加减分!S77</f>
         <v>0</v>
       </c>
-      <c r="K95" s="44">
+      <c r="K95" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L95" s="44">
+      <c r="L95" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4937,29 +5035,29 @@
     </row>
     <row r="96" customHeight="1" spans="1:13">
       <c r="A96" s="61"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="43" t="e">
+      <c r="B96" s="38"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G96" s="44"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="57">
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J96" s="44">
+      <c r="J96" s="39">
         <f>作业加减分!S78</f>
         <v>0</v>
       </c>
-      <c r="K96" s="44">
+      <c r="K96" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L96" s="44">
+      <c r="L96" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -4970,29 +5068,29 @@
     </row>
     <row r="97" customHeight="1" spans="1:13">
       <c r="A97" s="61"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="43" t="e">
+      <c r="B97" s="38"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="57">
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J97" s="44">
+      <c r="J97" s="39">
         <f>作业加减分!S79</f>
         <v>0</v>
       </c>
-      <c r="K97" s="44">
+      <c r="K97" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L97" s="44">
+      <c r="L97" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5003,29 +5101,29 @@
     </row>
     <row r="98" customHeight="1" spans="1:13">
       <c r="A98" s="61"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="43" t="e">
+      <c r="B98" s="38"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="57">
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J98" s="44">
+      <c r="J98" s="39">
         <f>作业加减分!S80</f>
         <v>0</v>
       </c>
-      <c r="K98" s="44">
+      <c r="K98" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L98" s="44">
+      <c r="L98" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5036,29 +5134,29 @@
     </row>
     <row r="99" customHeight="1" spans="1:13">
       <c r="A99" s="61"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="43" t="e">
+      <c r="B99" s="38"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="57">
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J99" s="44">
+      <c r="J99" s="39">
         <f>作业加减分!S81</f>
         <v>0</v>
       </c>
-      <c r="K99" s="44">
+      <c r="K99" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L99" s="44">
+      <c r="L99" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5069,29 +5167,29 @@
     </row>
     <row r="100" customHeight="1" spans="1:13">
       <c r="A100" s="61"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="43" t="e">
+      <c r="B100" s="38"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="57">
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J100" s="44">
+      <c r="J100" s="39">
         <f>作业加减分!S82</f>
         <v>0</v>
       </c>
-      <c r="K100" s="44">
+      <c r="K100" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L100" s="44">
+      <c r="L100" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5102,29 +5200,29 @@
     </row>
     <row r="101" customHeight="1" spans="1:13">
       <c r="A101" s="61"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="43" t="e">
+      <c r="B101" s="38"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="57">
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J101" s="44">
+      <c r="J101" s="39">
         <f>作业加减分!S83</f>
         <v>0</v>
       </c>
-      <c r="K101" s="44">
+      <c r="K101" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L101" s="44">
+      <c r="L101" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5135,29 +5233,29 @@
     </row>
     <row r="102" customHeight="1" spans="1:13">
       <c r="A102" s="61"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="43" t="e">
+      <c r="B102" s="38"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="57">
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J102" s="44">
+      <c r="J102" s="39">
         <f>作业加减分!S84</f>
         <v>0</v>
       </c>
-      <c r="K102" s="44">
+      <c r="K102" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L102" s="44">
+      <c r="L102" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5170,29 +5268,29 @@
       <c r="A103" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B103" s="53"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="43" t="e">
+      <c r="B103" s="38"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="57">
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J103" s="44">
+      <c r="J103" s="39">
         <f>作业加减分!S85</f>
         <v>0</v>
       </c>
-      <c r="K103" s="44">
+      <c r="K103" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L103" s="44">
+      <c r="L103" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5203,29 +5301,29 @@
     </row>
     <row r="104" customHeight="1" spans="1:13">
       <c r="A104" s="61"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="43" t="e">
+      <c r="B104" s="38"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="57">
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J104" s="44">
+      <c r="J104" s="39">
         <f>作业加减分!S86</f>
         <v>0</v>
       </c>
-      <c r="K104" s="44">
+      <c r="K104" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L104" s="44">
+      <c r="L104" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5236,29 +5334,29 @@
     </row>
     <row r="105" customHeight="1" spans="1:13">
       <c r="A105" s="61"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="46"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="43" t="e">
+      <c r="B105" s="38"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="57">
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J105" s="44">
+      <c r="J105" s="39">
         <f>作业加减分!S87</f>
         <v>0</v>
       </c>
-      <c r="K105" s="44">
+      <c r="K105" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L105" s="44">
+      <c r="L105" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5269,29 +5367,29 @@
     </row>
     <row r="106" customHeight="1" spans="1:13">
       <c r="A106" s="61"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="43" t="e">
+      <c r="B106" s="38"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="57">
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J106" s="44">
+      <c r="J106" s="39">
         <f>作业加减分!S88</f>
         <v>0</v>
       </c>
-      <c r="K106" s="44">
+      <c r="K106" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L106" s="44">
+      <c r="L106" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5302,29 +5400,29 @@
     </row>
     <row r="107" customHeight="1" spans="1:13">
       <c r="A107" s="61"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="43" t="e">
+      <c r="B107" s="38"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="57">
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J107" s="44">
+      <c r="J107" s="39">
         <f>作业加减分!S89</f>
         <v>0</v>
       </c>
-      <c r="K107" s="44">
+      <c r="K107" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L107" s="44">
+      <c r="L107" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5335,29 +5433,29 @@
     </row>
     <row r="108" customHeight="1" spans="1:13">
       <c r="A108" s="61"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="43" t="e">
+      <c r="B108" s="38"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="57">
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J108" s="44">
+      <c r="J108" s="39">
         <f>作业加减分!S90</f>
         <v>0</v>
       </c>
-      <c r="K108" s="44">
+      <c r="K108" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L108" s="44">
+      <c r="L108" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5368,29 +5466,29 @@
     </row>
     <row r="109" customHeight="1" spans="1:13">
       <c r="A109" s="61"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="43" t="e">
+      <c r="B109" s="38"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="57">
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J109" s="44">
+      <c r="J109" s="39">
         <f>作业加减分!S91</f>
         <v>0</v>
       </c>
-      <c r="K109" s="44">
+      <c r="K109" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L109" s="44">
+      <c r="L109" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5401,29 +5499,29 @@
     </row>
     <row r="110" customHeight="1" spans="1:13">
       <c r="A110" s="61"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="43" t="e">
+      <c r="B110" s="38"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="53" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="57">
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J110" s="44">
+      <c r="J110" s="39">
         <f>作业加减分!S92</f>
         <v>0</v>
       </c>
-      <c r="K110" s="44">
+      <c r="K110" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L110" s="44">
+      <c r="L110" s="39">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
@@ -5433,8 +5531,8 @@
       </c>
     </row>
     <row r="111" customHeight="1" spans="2:3">
-      <c r="B111" s="41"/>
-      <c r="C111" s="46"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="31"/>
     </row>
   </sheetData>
   <sheetProtection password="CEEF" sheet="1" selectLockedCells="1" objects="1"/>
@@ -5487,17 +5585,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:S44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.62962962962963" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1" spans="1:19">
@@ -5582,7 +5680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" ht="22.2" spans="1:19">
+    <row r="3" ht="22" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -5618,7 +5716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="22.2" spans="1:19">
+    <row r="4" ht="22" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -5654,7 +5752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="22.2" spans="1:19">
+    <row r="5" ht="22" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -5690,7 +5788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="22.2" spans="1:19">
+    <row r="6" ht="22" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -5726,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="22.2" spans="1:19">
+    <row r="7" ht="22" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -5762,7 +5860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="22.2" spans="1:19">
+    <row r="8" ht="22" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -5798,7 +5896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="22.2" spans="1:19">
+    <row r="9" ht="22" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -5834,7 +5932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="22.2" spans="1:19">
+    <row r="10" ht="22" spans="1:19">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -5870,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="22.2" spans="1:19">
+    <row r="11" ht="22" spans="1:19">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -5906,7 +6004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="22.2" spans="1:19">
+    <row r="12" ht="22" spans="1:19">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -5942,7 +6040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="22.2" spans="1:19">
+    <row r="13" ht="22" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -5978,7 +6076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="22.2" spans="1:19">
+    <row r="14" ht="22" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -6014,7 +6112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="22.2" spans="1:19">
+    <row r="15" ht="22" spans="1:19">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -6050,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="22.2" spans="1:19">
+    <row r="16" ht="22" spans="1:19">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -6086,7 +6184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="22.2" spans="1:19">
+    <row r="17" ht="22" spans="1:19">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -6122,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="22.2" spans="1:19">
+    <row r="18" ht="22" spans="1:19">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -6158,7 +6256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="22.2" spans="1:19">
+    <row r="19" ht="22" spans="1:19">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
@@ -6194,7 +6292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="22.2" spans="1:19">
+    <row r="20" ht="22" spans="1:19">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -6230,7 +6328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="22.2" spans="1:19">
+    <row r="21" ht="22" spans="1:19">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -6266,7 +6364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="22.2" spans="1:19">
+    <row r="22" ht="22" spans="1:19">
       <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
@@ -6302,9 +6400,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="22.2" spans="1:19">
+    <row r="23" ht="22" spans="1:19">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -6338,9 +6436,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="22.2" spans="1:19">
+    <row r="24" ht="22" spans="1:19">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
@@ -6374,9 +6472,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="22.2" spans="1:19">
+    <row r="25" ht="22" spans="1:19">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -6410,9 +6508,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="22.2" spans="1:19">
+    <row r="26" ht="22" spans="1:19">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -6446,9 +6544,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="22.2" spans="1:19">
+    <row r="27" ht="22" spans="1:19">
       <c r="A27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -6482,9 +6580,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="22.2" spans="1:19">
+    <row r="28" ht="22" spans="1:19">
       <c r="A28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -6518,9 +6616,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="22.2" spans="1:19">
+    <row r="29" ht="22" spans="1:19">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="5">
         <v>1</v>
@@ -6554,9 +6652,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="22.2" spans="1:19">
+    <row r="30" ht="22" spans="1:19">
       <c r="A30" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -6590,9 +6688,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="22.2" spans="1:19">
+    <row r="31" ht="22" spans="1:19">
       <c r="A31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -6626,9 +6724,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="22.2" spans="1:19">
+    <row r="32" ht="22" spans="1:19">
       <c r="A32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
@@ -6662,9 +6760,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" ht="22.2" spans="1:19">
+    <row r="33" ht="22" spans="1:19">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -6698,9 +6796,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="22.2" spans="1:19">
+    <row r="34" ht="22" spans="1:19">
       <c r="A34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -6734,9 +6832,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="22.2" spans="1:19">
+    <row r="35" ht="22" spans="1:19">
       <c r="A35" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -6770,9 +6868,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="22.2" spans="1:19">
+    <row r="36" ht="22" spans="1:19">
       <c r="A36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -6806,9 +6904,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="22.2" spans="1:19">
+    <row r="37" ht="22" spans="1:19">
       <c r="A37" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -6842,9 +6940,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="22.2" spans="1:19">
+    <row r="38" ht="22" spans="1:19">
       <c r="A38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -6878,9 +6976,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="22.2" spans="1:19">
+    <row r="39" ht="22" spans="1:19">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -6914,9 +7012,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" ht="22.2" spans="1:19">
+    <row r="40" ht="22" spans="1:19">
       <c r="A40" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -6950,9 +7048,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="22.2" spans="1:19">
+    <row r="41" ht="22" spans="1:19">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -6986,9 +7084,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="22.2" spans="1:19">
+    <row r="42" ht="22" spans="1:19">
       <c r="A42" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -7022,9 +7120,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="22.2" spans="1:19">
+    <row r="43" ht="22" spans="1:19">
       <c r="A43" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -7058,9 +7156,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="22.2" spans="1:19">
+    <row r="44" ht="22" spans="1:19">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -8155,7 +8253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -8163,9 +8261,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.62962962962963" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
